--- a/Rule.xlsx
+++ b/Rule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d1d0d9306b8d460/Documents/UiPath/Sales-Order-Entry/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munta\OneDrive\Documents\UiPath\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{47655033-052A-4677-8764-8A2A0A124070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F419301-CE77-4BB6-85CE-B030A445B0C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA80CC46-6CD8-40CA-A582-D47D0D8ED39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="34995" yWindow="3885" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Exenon Ui Pharma</t>
   </si>
@@ -53,31 +53,16 @@
     <t>Expected Price</t>
   </si>
   <si>
-    <t>Buy Threshold</t>
-  </si>
-  <si>
-    <t>Sell Threshold</t>
-  </si>
-  <si>
     <t>$50</t>
   </si>
   <si>
-    <t>$67</t>
-  </si>
-  <si>
-    <t>$70</t>
-  </si>
-  <si>
     <t>$30</t>
   </si>
   <si>
-    <t>$58</t>
-  </si>
-  <si>
-    <t>$62</t>
-  </si>
-  <si>
     <t>$80</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
@@ -466,7 +451,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,53 +470,39 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rule.xlsx
+++ b/Rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munta\OneDrive\Documents\UiPath\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA80CC46-6CD8-40CA-A582-D47D0D8ED39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38BC525-027C-46EC-86D8-ECE28C8FE8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Rule.xlsx
+++ b/Rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d1d0d9306b8d460/Documents/UiPath/Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC10481E51DB63605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6566EA34-A541-462F-98BB-83EC9E38476F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC10481E51DB63605ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AD1F150-8C03-4C8F-8875-E386D0D4D77E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Company Name</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>Exxon RPA Corp</t>
-  </si>
-  <si>
-    <t>$50</t>
-  </si>
-  <si>
-    <t>$30.67</t>
-  </si>
-  <si>
-    <t>$80.9</t>
   </si>
 </sst>
 </file>
@@ -397,7 +388,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,24 +413,24 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
